--- a/biology/Botanique/Sabença_de_la_Valeia/Sabença_de_la_Valeia.xlsx
+++ b/biology/Botanique/Sabença_de_la_Valeia/Sabença_de_la_Valeia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saben%C3%A7a_de_la_Valeia</t>
+          <t>Sabença_de_la_Valeia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabença de la Valéia (littéralement "Connaissance de la vallée") est une société savante de la vallée de l'Ubaye dans le département des Alpes-de-Haute-Provence fondée en 1980. Son siège est établi à Barcelonnette.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saben%C3%A7a_de_la_Valeia</t>
+          <t>Sabença_de_la_Valeia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectifs et actions de la société</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association recherche, étudie et diffuse tout ce qui concerne cette vallée (ou Vallée de Barcelonnette). Elle apporte un appui aux programmes du Musée de la vallée, de la mise en valeur des fortifications, du patrimoine civil et religieux. Elle sert de relais technique à de nombreuses initiatives culturelles et de recherche sur la vallée.
 Son activité aborde des domaines variés :
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saben%C3%A7a_de_la_Valeia</t>
+          <t>Sabença_de_la_Valeia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Voyage photographique au cœur des Alpes du Sud, Claude Gouron, coédité avec les éditions A. Barthélemy, Avignon, 2003.
